--- a/quals-ppt/Quals-tabs-n-charts.xlsx
+++ b/quals-ppt/Quals-tabs-n-charts.xlsx
@@ -1,58 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tg/work/phd/phd-git/quals-ppt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A685A74C-64E2-854E-86E8-6CBF99053992}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A8472E-0A0E-054C-B937-C5C31091F249}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19000" yWindow="2500" windowWidth="35200" windowHeight="24000" activeTab="1" xr2:uid="{D80716E3-8E0F-AF4C-AC47-351DBC577466}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D80716E3-8E0F-AF4C-AC47-351DBC577466}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$G$5:$H$11</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$I$4</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$M$5:$M$7,Sheet1!$M$9:$M$11</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$I$5:$I$7,Sheet1!$I$9:$I$11</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$J$4</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$J$5:$J$7,Sheet1!$J$9:$J$11</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$K$4</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$K$5:$K$7,Sheet1!$K$9:$K$11</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$L$4</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$L$5:$L$7,Sheet1!$L$9:$L$11</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$M$4</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">Sheet1!$G$5:$H$11</definedName>
-    <definedName name="_xlchart.v2.12" hidden="1">Sheet1!$I$4</definedName>
-    <definedName name="_xlchart.v2.13" hidden="1">Sheet1!$I$5:$I$7,Sheet1!$I$9:$I$11</definedName>
-    <definedName name="_xlchart.v2.14" hidden="1">Sheet1!$J$4</definedName>
-    <definedName name="_xlchart.v2.15" hidden="1">Sheet1!$J$5:$J$7,Sheet1!$J$9:$J$11</definedName>
-    <definedName name="_xlchart.v2.16" hidden="1">Sheet1!$K$4</definedName>
-    <definedName name="_xlchart.v2.17" hidden="1">Sheet1!$K$5:$K$7,Sheet1!$K$9:$K$11</definedName>
-    <definedName name="_xlchart.v2.18" hidden="1">Sheet1!$L$4</definedName>
-    <definedName name="_xlchart.v2.19" hidden="1">Sheet1!$L$5:$L$7,Sheet1!$L$9:$L$11</definedName>
-    <definedName name="_xlchart.v2.20" hidden="1">Sheet1!$M$4</definedName>
-    <definedName name="_xlchart.v2.21" hidden="1">Sheet1!$M$5:$M$7,Sheet1!$M$9:$M$11</definedName>
-    <definedName name="_xlchart.v2.22" hidden="1">Sheet1!$G$10:$H$10</definedName>
-    <definedName name="_xlchart.v2.23" hidden="1">Sheet1!$G$11:$H$11</definedName>
-    <definedName name="_xlchart.v2.24" hidden="1">Sheet1!$G$5:$H$5</definedName>
-    <definedName name="_xlchart.v2.25" hidden="1">Sheet1!$G$6:$H$6</definedName>
-    <definedName name="_xlchart.v2.26" hidden="1">Sheet1!$G$7:$H$7</definedName>
-    <definedName name="_xlchart.v2.27" hidden="1">Sheet1!$G$9:$H$9</definedName>
-    <definedName name="_xlchart.v2.28" hidden="1">Sheet1!$I$10:$M$10</definedName>
-    <definedName name="_xlchart.v2.29" hidden="1">Sheet1!$I$11:$M$11</definedName>
-    <definedName name="_xlchart.v2.30" hidden="1">Sheet1!$I$4:$M$4</definedName>
-    <definedName name="_xlchart.v2.31" hidden="1">Sheet1!$I$5:$M$5</definedName>
-    <definedName name="_xlchart.v2.32" hidden="1">Sheet1!$I$6:$M$6</definedName>
-    <definedName name="_xlchart.v2.33" hidden="1">Sheet1!$I$7:$M$7</definedName>
-    <definedName name="_xlchart.v2.34" hidden="1">Sheet1!$I$9:$M$9</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -87,9 +50,6 @@
   </si>
   <si>
     <t>MicroF1</t>
-  </si>
-  <si>
-    <t>BLUERTmean</t>
   </si>
   <si>
     <t>BLEURTmedian</t>
@@ -253,6 +213,9 @@
   <si>
     <t xml:space="preserve">Median 𝜏 </t>
   </si>
+  <si>
+    <t>BLEURTmean</t>
+  </si>
 </sst>
 </file>
 
@@ -397,9 +360,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -417,6 +377,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -988,7 +951,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BLUERTmean</c:v>
+                  <c:v>BLEURTmean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5085,7 +5048,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -14509,8 +14472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D1EDFF-D777-2A4A-9A55-DEC6CA8664E3}">
   <dimension ref="B3:Y65"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14536,16 +14499,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>2</v>
@@ -14557,13 +14520,13 @@
         <v>4</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T4" t="s">
         <v>2</v>
@@ -14575,13 +14538,13 @@
         <v>4</v>
       </c>
       <c r="W4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y4" t="s">
         <v>24</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:25" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14594,58 +14557,58 @@
       <c r="D5" s="5">
         <v>0.5</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="11">
+      <c r="G5" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="10">
         <v>0.752</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <v>0.71299999999999997</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>0.71399999999999997</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="10">
         <v>0.74199999999999999</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="10">
         <v>0.80400000000000005</v>
       </c>
       <c r="Q5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" s="15">
+        <v>17</v>
+      </c>
+      <c r="T5" s="14">
         <v>0.42899999999999999</v>
       </c>
-      <c r="U5" s="15">
+      <c r="U5" s="14">
         <v>0.36299999999999999</v>
       </c>
-      <c r="V5" s="16">
+      <c r="V5" s="15">
         <v>0.50800000000000001</v>
       </c>
-      <c r="W5" s="17">
+      <c r="W5" s="16">
         <v>0.38500000000000001</v>
       </c>
-      <c r="X5" s="15">
+      <c r="X5" s="14">
         <v>0.45100000000000001</v>
       </c>
-      <c r="Y5" s="15">
+      <c r="Y5" s="14">
         <v>0.42</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="6">
         <v>0.27800000000000002</v>
@@ -14653,50 +14616,50 @@
       <c r="D6" s="6">
         <v>0.77800000000000002</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="11">
+      <c r="G6" s="17"/>
+      <c r="H6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="10">
         <v>0.85799999999999998</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <v>0.85699999999999998</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <v>0.875</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <v>0.873</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="10">
         <v>0.90200000000000002</v>
       </c>
       <c r="Q6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S6" t="s">
-        <v>56</v>
-      </c>
-      <c r="T6" s="15">
+        <v>55</v>
+      </c>
+      <c r="T6" s="14">
         <v>0.55900000000000005</v>
       </c>
-      <c r="U6" s="16">
+      <c r="U6" s="15">
         <v>0.65300000000000002</v>
       </c>
-      <c r="V6" s="15">
+      <c r="V6" s="14">
         <v>0.57399999999999995</v>
       </c>
-      <c r="W6" s="15">
+      <c r="W6" s="14">
         <v>0.58099999999999996</v>
       </c>
-      <c r="X6" s="15">
+      <c r="X6" s="14">
         <v>0.58399999999999996</v>
       </c>
-      <c r="Y6" s="15">
+      <c r="Y6" s="14">
         <v>0.58099999999999996</v>
       </c>
     </row>
@@ -14710,50 +14673,50 @@
       <c r="D7" s="7">
         <v>0.72199999999999998</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="11">
+      <c r="G7" s="17"/>
+      <c r="H7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="10">
         <v>0.751</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <v>0.77100000000000002</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>0.82099999999999995</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="10">
         <v>0.81799999999999995</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="10">
         <v>0.84099999999999997</v>
       </c>
       <c r="Q7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S7" t="s">
-        <v>57</v>
-      </c>
-      <c r="T7" s="15">
+        <v>56</v>
+      </c>
+      <c r="T7" s="14">
         <v>0.45500000000000002</v>
       </c>
-      <c r="U7" s="16">
+      <c r="U7" s="15">
         <v>0.55000000000000004</v>
       </c>
-      <c r="V7" s="15">
+      <c r="V7" s="14">
         <v>0.52700000000000002</v>
       </c>
-      <c r="W7" s="15">
+      <c r="W7" s="14">
         <v>0.38200000000000001</v>
       </c>
-      <c r="X7" s="15">
+      <c r="X7" s="14">
         <v>0.41799999999999998</v>
       </c>
-      <c r="Y7" s="15">
+      <c r="Y7" s="14">
         <v>0.41799999999999998</v>
       </c>
     </row>
@@ -14768,10 +14731,10 @@
         <v>0.61099999999999999</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>2</v>
@@ -14783,13 +14746,13 @@
         <v>4</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T8" t="s">
         <v>2</v>
@@ -14801,18 +14764,18 @@
         <v>4</v>
       </c>
       <c r="W8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y8" t="s">
         <v>24</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:25" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C9" s="7">
         <v>0.44400000000000001</v>
@@ -14820,58 +14783,58 @@
       <c r="D9" s="7">
         <v>0.83299999999999996</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="11">
+      <c r="G9" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="10">
         <v>0.75800000000000001</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="10">
         <v>0.73299999999999998</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>0.73499999999999999</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="10">
         <v>0.72799999999999998</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="10">
         <v>0.79100000000000004</v>
       </c>
       <c r="Q9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S9" t="s">
-        <v>18</v>
-      </c>
-      <c r="T9" s="15">
+        <v>17</v>
+      </c>
+      <c r="T9" s="14">
         <v>0.34499999999999997</v>
       </c>
-      <c r="U9" s="16">
+      <c r="U9" s="15">
         <v>0.52700000000000002</v>
       </c>
-      <c r="V9" s="15">
+      <c r="V9" s="14">
         <v>0.49099999999999999</v>
       </c>
-      <c r="W9" s="15">
+      <c r="W9" s="14">
         <v>0.49099999999999999</v>
       </c>
-      <c r="X9" s="15">
+      <c r="X9" s="14">
         <v>0.49099999999999999</v>
       </c>
-      <c r="Y9" s="15">
+      <c r="Y9" s="14">
         <v>0.47699999999999998</v>
       </c>
     </row>
     <row r="10" spans="2:25" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="6">
         <v>0.61099999999999999</v>
@@ -14879,107 +14842,107 @@
       <c r="D10" s="6">
         <v>0.66700000000000004</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="11">
+      <c r="G10" s="17"/>
+      <c r="H10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="10">
         <v>0.86799999999999999</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="10">
         <v>0.86799999999999999</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="10">
         <v>0.90100000000000002</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="10">
         <v>0.879</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="10">
         <v>0.91900000000000004</v>
       </c>
       <c r="Q10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S10" t="s">
-        <v>56</v>
-      </c>
-      <c r="T10" s="15">
+        <v>55</v>
+      </c>
+      <c r="T10" s="14">
         <v>0.58899999999999997</v>
       </c>
-      <c r="U10" s="16">
+      <c r="U10" s="15">
         <v>0.68200000000000005</v>
       </c>
-      <c r="V10" s="15">
+      <c r="V10" s="14">
         <v>0.59299999999999997</v>
       </c>
-      <c r="W10" s="15">
+      <c r="W10" s="14">
         <v>0.58299999999999996</v>
       </c>
-      <c r="X10" s="15">
+      <c r="X10" s="14">
         <v>0.58099999999999996</v>
       </c>
-      <c r="Y10" s="15">
+      <c r="Y10" s="14">
         <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="G11" s="9"/>
-      <c r="H11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="11">
+      <c r="G11" s="17"/>
+      <c r="H11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="10">
         <v>0.78200000000000003</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="10">
         <v>0.752</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="10">
         <v>0.84399999999999997</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="10">
         <v>0.84399999999999997</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="10">
         <v>0.875</v>
       </c>
       <c r="Q11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S11" t="s">
-        <v>57</v>
-      </c>
-      <c r="T11" s="15">
+        <v>56</v>
+      </c>
+      <c r="T11" s="14">
         <v>0.25700000000000001</v>
       </c>
-      <c r="U11" s="16">
+      <c r="U11" s="15">
         <v>0.5</v>
       </c>
-      <c r="V11" s="15">
+      <c r="V11" s="14">
         <v>0.33</v>
       </c>
-      <c r="W11" s="15">
+      <c r="W11" s="14">
         <v>0.40400000000000003</v>
       </c>
-      <c r="X11" s="15">
+      <c r="X11" s="14">
         <v>0.36699999999999999</v>
       </c>
-      <c r="Y11" s="15">
+      <c r="Y11" s="14">
         <v>0.36699999999999999</v>
       </c>
     </row>
     <row r="12" spans="2:25" ht="17" x14ac:dyDescent="0.2">
       <c r="H12" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>2</v>
@@ -14991,13 +14954,13 @@
         <v>4</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T12" t="s">
         <v>2</v>
@@ -15009,21 +14972,21 @@
         <v>4</v>
       </c>
       <c r="W12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y12" t="s">
         <v>24</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.2">
       <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="I13">
         <v>5</v>
@@ -15041,40 +15004,40 @@
         <v>6</v>
       </c>
       <c r="Q13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S13" t="s">
-        <v>18</v>
-      </c>
-      <c r="T13" s="15">
+        <v>17</v>
+      </c>
+      <c r="T13" s="14">
         <v>0.495</v>
       </c>
-      <c r="U13" s="15">
+      <c r="U13" s="14">
         <v>0.42899999999999999</v>
       </c>
-      <c r="V13" s="16">
+      <c r="V13" s="15">
         <v>0.57499999999999996</v>
       </c>
-      <c r="W13" s="15">
+      <c r="W13" s="14">
         <v>0.45100000000000001</v>
       </c>
-      <c r="X13" s="15">
+      <c r="X13" s="14">
         <v>0.47299999999999998</v>
       </c>
-      <c r="Y13" s="15">
+      <c r="Y13" s="14">
         <v>0.48599999999999999</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="F14" s="10"/>
+      <c r="F14" s="9"/>
       <c r="G14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -15092,40 +15055,40 @@
         <v>6</v>
       </c>
       <c r="Q14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S14" t="s">
-        <v>56</v>
-      </c>
-      <c r="T14" s="15">
+        <v>55</v>
+      </c>
+      <c r="T14" s="14">
         <v>0.49299999999999999</v>
       </c>
-      <c r="U14" s="16">
+      <c r="U14" s="15">
         <v>0.63200000000000001</v>
       </c>
-      <c r="V14" s="15">
+      <c r="V14" s="14">
         <v>0.48699999999999999</v>
       </c>
-      <c r="W14" s="15">
+      <c r="W14" s="14">
         <v>0.49399999999999999</v>
       </c>
-      <c r="X14" s="15">
+      <c r="X14" s="14">
         <v>0.55800000000000005</v>
       </c>
-      <c r="Y14" s="15">
+      <c r="Y14" s="14">
         <v>0.55400000000000005</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="F15" s="10"/>
+      <c r="F15" s="9"/>
       <c r="G15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="I15">
         <v>3</v>
@@ -15143,40 +15106,40 @@
         <v>5</v>
       </c>
       <c r="Q15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S15" t="s">
-        <v>57</v>
-      </c>
-      <c r="T15" s="15">
+        <v>56</v>
+      </c>
+      <c r="T15" s="14">
         <v>0.49099999999999999</v>
       </c>
-      <c r="U15" s="16">
+      <c r="U15" s="15">
         <v>0.66100000000000003</v>
       </c>
-      <c r="V15" s="15">
+      <c r="V15" s="14">
         <v>0.56399999999999995</v>
       </c>
-      <c r="W15" s="15">
+      <c r="W15" s="14">
         <v>0.49099999999999999</v>
       </c>
-      <c r="X15" s="15">
+      <c r="X15" s="14">
         <v>0.52700000000000002</v>
       </c>
-      <c r="Y15" s="15">
+      <c r="Y15" s="14">
         <v>0.52700000000000002</v>
       </c>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="F16" s="10"/>
+      <c r="F16" s="9"/>
       <c r="R16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T16" t="s">
         <v>2</v>
@@ -15188,110 +15151,110 @@
         <v>4</v>
       </c>
       <c r="W16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y16" t="s">
         <v>24</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17" spans="6:25" x14ac:dyDescent="0.2">
-      <c r="F17" s="10"/>
+      <c r="F17" s="9"/>
       <c r="Q17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S17" t="s">
-        <v>18</v>
-      </c>
-      <c r="T17" s="15">
+        <v>17</v>
+      </c>
+      <c r="T17" s="14">
         <v>0.27300000000000002</v>
       </c>
-      <c r="U17" s="16">
+      <c r="U17" s="15">
         <v>0.45500000000000002</v>
       </c>
-      <c r="V17" s="15">
+      <c r="V17" s="14">
         <v>0.41799999999999998</v>
       </c>
-      <c r="W17" s="15">
+      <c r="W17" s="14">
         <v>0.41799999999999998</v>
       </c>
-      <c r="X17" s="15">
+      <c r="X17" s="14">
         <v>0.41799999999999998</v>
       </c>
-      <c r="Y17" s="15">
+      <c r="Y17" s="14">
         <v>0.40400000000000003</v>
       </c>
     </row>
     <row r="18" spans="6:25" x14ac:dyDescent="0.2">
-      <c r="F18" s="10"/>
+      <c r="F18" s="9"/>
       <c r="Q18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S18" t="s">
-        <v>56</v>
-      </c>
-      <c r="T18" s="15">
+        <v>55</v>
+      </c>
+      <c r="T18" s="14">
         <v>0.51900000000000002</v>
       </c>
-      <c r="U18" s="16">
+      <c r="U18" s="15">
         <v>0.63700000000000001</v>
       </c>
-      <c r="V18" s="15">
+      <c r="V18" s="14">
         <v>0.52300000000000002</v>
       </c>
-      <c r="W18" s="15">
+      <c r="W18" s="14">
         <v>0.48199999999999998</v>
       </c>
-      <c r="X18" s="15">
+      <c r="X18" s="14">
         <v>0.53600000000000003</v>
       </c>
-      <c r="Y18" s="15">
+      <c r="Y18" s="14">
         <v>0.52600000000000002</v>
       </c>
     </row>
     <row r="19" spans="6:25" x14ac:dyDescent="0.2">
       <c r="Q19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S19" t="s">
-        <v>57</v>
-      </c>
-      <c r="T19" s="15">
+        <v>56</v>
+      </c>
+      <c r="T19" s="14">
         <v>0.183</v>
       </c>
-      <c r="U19" s="16">
+      <c r="U19" s="15">
         <v>0.42599999999999999</v>
       </c>
-      <c r="V19" s="15">
+      <c r="V19" s="14">
         <v>0.25700000000000001</v>
       </c>
-      <c r="W19" s="15">
+      <c r="W19" s="14">
         <v>0.33</v>
       </c>
-      <c r="X19" s="15">
+      <c r="X19" s="14">
         <v>0.29399999999999998</v>
       </c>
-      <c r="Y19" s="15">
+      <c r="Y19" s="14">
         <v>0.29399999999999998</v>
       </c>
     </row>
     <row r="49" spans="6:25" ht="17" x14ac:dyDescent="0.2">
       <c r="F49" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I49" s="8" t="s">
         <v>2</v>
@@ -15303,26 +15266,26 @@
         <v>4</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="T49" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="T49" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U49" s="17"/>
+      <c r="V49" s="17"/>
+      <c r="W49" s="17"/>
+      <c r="X49" s="17"/>
+      <c r="Y49" s="17"/>
     </row>
     <row r="50" spans="6:25" x14ac:dyDescent="0.2">
-      <c r="F50" s="9">
+      <c r="F50" s="17">
         <v>2019</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H50">
         <v>0.751</v>
@@ -15339,17 +15302,17 @@
       <c r="L50">
         <v>0.84099999999999997</v>
       </c>
-      <c r="M50" s="9">
+      <c r="M50" s="17">
         <v>18</v>
       </c>
       <c r="P50" t="s">
+        <v>21</v>
+      </c>
+      <c r="R50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S50" t="s">
         <v>22</v>
-      </c>
-      <c r="R50" t="s">
-        <v>19</v>
-      </c>
-      <c r="S50" t="s">
-        <v>23</v>
       </c>
       <c r="T50" t="s">
         <v>2</v>
@@ -15361,19 +15324,19 @@
         <v>4</v>
       </c>
       <c r="W50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X50" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y50" t="s">
         <v>24</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="51" spans="6:25" x14ac:dyDescent="0.2">
-      <c r="F51" s="9"/>
+      <c r="F51" s="17"/>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H51">
         <v>0.78200000000000003</v>
@@ -15390,42 +15353,42 @@
       <c r="L51">
         <v>0.875</v>
       </c>
-      <c r="M51" s="9"/>
+      <c r="M51" s="17"/>
       <c r="P51" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>19</v>
+      </c>
+      <c r="R51" t="s">
         <v>26</v>
       </c>
-      <c r="Q51" t="s">
-        <v>20</v>
-      </c>
-      <c r="R51" t="s">
-        <v>27</v>
-      </c>
       <c r="S51" t="s">
-        <v>18</v>
-      </c>
-      <c r="T51" s="13">
+        <v>17</v>
+      </c>
+      <c r="T51" s="12">
         <v>0.42899999999999999</v>
       </c>
-      <c r="U51" s="13" t="s">
+      <c r="U51" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="V51" s="13">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="W51" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="V51" s="14">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="W51" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="X51" s="13">
+      <c r="X51" s="12">
         <v>0.45100000000000001</v>
       </c>
-      <c r="Y51" s="13">
+      <c r="Y51" s="12">
         <v>0.42</v>
       </c>
     </row>
     <row r="52" spans="6:25" x14ac:dyDescent="0.2">
-      <c r="F52" s="9"/>
+      <c r="F52" s="17"/>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -15442,44 +15405,44 @@
       <c r="L52">
         <v>5</v>
       </c>
-      <c r="M52" s="9"/>
+      <c r="M52" s="17"/>
       <c r="P52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S52" t="s">
-        <v>56</v>
-      </c>
-      <c r="T52" s="13">
+        <v>55</v>
+      </c>
+      <c r="T52" s="12">
         <v>0.55900000000000005</v>
       </c>
-      <c r="U52" s="14">
+      <c r="U52" s="13">
         <v>0.65300000000000002</v>
       </c>
-      <c r="V52" s="13">
+      <c r="V52" s="12">
         <v>0.57399999999999995</v>
       </c>
-      <c r="W52" s="13">
+      <c r="W52" s="12">
         <v>0.58099999999999996</v>
       </c>
-      <c r="X52" s="13">
+      <c r="X52" s="12">
         <v>0.58399999999999996</v>
       </c>
-      <c r="Y52" s="13">
+      <c r="Y52" s="12">
         <v>0.58099999999999996</v>
       </c>
     </row>
     <row r="53" spans="6:25" x14ac:dyDescent="0.2">
-      <c r="F53" s="9">
+      <c r="F53" s="17">
         <v>2018</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H53">
         <v>0.85799999999999998</v>
@@ -15496,44 +15459,44 @@
       <c r="L53">
         <v>0.90200000000000002</v>
       </c>
-      <c r="M53" s="9">
+      <c r="M53" s="17">
         <v>14</v>
       </c>
       <c r="P53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S53" t="s">
-        <v>57</v>
-      </c>
-      <c r="T53" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="T53" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U53" s="13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V53" s="12">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="W53" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="U53" s="14">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="V53" s="13">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="W53" s="13" t="s">
+      <c r="X53" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="X53" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y53" s="13" t="s">
-        <v>40</v>
+      <c r="Y53" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="6:25" x14ac:dyDescent="0.2">
-      <c r="F54" s="9"/>
+      <c r="F54" s="17"/>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H54">
         <v>0.86799999999999999</v>
@@ -15550,12 +15513,12 @@
       <c r="L54">
         <v>0.91900000000000004</v>
       </c>
-      <c r="M54" s="9"/>
+      <c r="M54" s="17"/>
     </row>
     <row r="55" spans="6:25" x14ac:dyDescent="0.2">
-      <c r="F55" s="9"/>
+      <c r="F55" s="17"/>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -15572,44 +15535,44 @@
       <c r="L55">
         <v>6</v>
       </c>
-      <c r="M55" s="9"/>
+      <c r="M55" s="17"/>
       <c r="P55" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>19</v>
+      </c>
+      <c r="R55" t="s">
         <v>28</v>
       </c>
-      <c r="Q55" t="s">
-        <v>20</v>
-      </c>
-      <c r="R55" t="s">
-        <v>29</v>
-      </c>
       <c r="S55" t="s">
-        <v>18</v>
-      </c>
-      <c r="T55" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="U55" s="14">
+        <v>17</v>
+      </c>
+      <c r="T55" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="U55" s="13">
         <v>0.52700000000000002</v>
       </c>
-      <c r="V55" s="13">
+      <c r="V55" s="12">
         <v>0.49099999999999999</v>
       </c>
-      <c r="W55" s="13">
+      <c r="W55" s="12">
         <v>0.49099999999999999</v>
       </c>
-      <c r="X55" s="13">
+      <c r="X55" s="12">
         <v>0.49099999999999999</v>
       </c>
-      <c r="Y55" s="13">
+      <c r="Y55" s="12">
         <v>0.47699999999999998</v>
       </c>
     </row>
     <row r="56" spans="6:25" x14ac:dyDescent="0.2">
-      <c r="F56" s="9">
+      <c r="F56" s="17">
         <v>2017</v>
       </c>
       <c r="G56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H56">
         <v>0.752</v>
@@ -15626,44 +15589,44 @@
       <c r="L56">
         <v>0.80400000000000005</v>
       </c>
-      <c r="M56" s="9">
+      <c r="M56" s="17">
         <v>13</v>
       </c>
       <c r="P56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S56" t="s">
-        <v>56</v>
-      </c>
-      <c r="T56" s="13">
+        <v>55</v>
+      </c>
+      <c r="T56" s="12">
         <v>0.58899999999999997</v>
       </c>
-      <c r="U56" s="14">
+      <c r="U56" s="13">
         <v>0.68200000000000005</v>
       </c>
-      <c r="V56" s="13">
+      <c r="V56" s="12">
         <v>0.59299999999999997</v>
       </c>
-      <c r="W56" s="13">
+      <c r="W56" s="12">
         <v>0.58299999999999996</v>
       </c>
-      <c r="X56" s="13">
+      <c r="X56" s="12">
         <v>0.58099999999999996</v>
       </c>
-      <c r="Y56" s="13">
+      <c r="Y56" s="12">
         <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="57" spans="6:25" x14ac:dyDescent="0.2">
-      <c r="F57" s="9"/>
+      <c r="F57" s="17"/>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H57">
         <v>0.75800000000000001</v>
@@ -15680,42 +15643,42 @@
       <c r="L57">
         <v>0.79100000000000004</v>
       </c>
-      <c r="M57" s="9"/>
+      <c r="M57" s="17"/>
       <c r="P57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S57" t="s">
-        <v>57</v>
-      </c>
-      <c r="T57" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="T57" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="U57" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="V57" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="U57" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="V57" s="13" t="s">
+      <c r="W57" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="W57" s="13" t="s">
+      <c r="X57" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="X57" s="13" t="s">
+      <c r="Y57" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="Y57" s="13" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="58" spans="6:25" x14ac:dyDescent="0.2">
-      <c r="F58" s="9"/>
+      <c r="F58" s="17"/>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H58">
         <v>5</v>
@@ -15732,211 +15695,211 @@
       <c r="L58">
         <v>6</v>
       </c>
-      <c r="M58" s="9"/>
+      <c r="M58" s="17"/>
     </row>
     <row r="59" spans="6:25" x14ac:dyDescent="0.2">
       <c r="P59" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>33</v>
+      </c>
+      <c r="R59" t="s">
         <v>26</v>
       </c>
-      <c r="Q59" t="s">
-        <v>34</v>
-      </c>
-      <c r="R59" t="s">
-        <v>27</v>
-      </c>
       <c r="S59" t="s">
-        <v>18</v>
-      </c>
-      <c r="T59" s="13">
+        <v>17</v>
+      </c>
+      <c r="T59" s="12">
         <v>0.495</v>
       </c>
-      <c r="U59" s="13">
+      <c r="U59" s="12">
         <v>0.42899999999999999</v>
       </c>
-      <c r="V59" s="14">
+      <c r="V59" s="13">
         <v>0.57499999999999996</v>
       </c>
-      <c r="W59" s="13">
+      <c r="W59" s="12">
         <v>0.45100000000000001</v>
       </c>
-      <c r="X59" s="13">
+      <c r="X59" s="12">
         <v>0.47299999999999998</v>
       </c>
-      <c r="Y59" s="13">
+      <c r="Y59" s="12">
         <v>0.48599999999999999</v>
       </c>
     </row>
     <row r="60" spans="6:25" x14ac:dyDescent="0.2">
       <c r="P60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S60" t="s">
-        <v>56</v>
-      </c>
-      <c r="T60" s="13">
+        <v>55</v>
+      </c>
+      <c r="T60" s="12">
         <v>0.49299999999999999</v>
       </c>
-      <c r="U60" s="14">
+      <c r="U60" s="13">
         <v>0.63200000000000001</v>
       </c>
-      <c r="V60" s="13">
+      <c r="V60" s="12">
         <v>0.48699999999999999</v>
       </c>
-      <c r="W60" s="13">
+      <c r="W60" s="12">
         <v>0.49399999999999999</v>
       </c>
-      <c r="X60" s="13">
+      <c r="X60" s="12">
         <v>0.55800000000000005</v>
       </c>
-      <c r="Y60" s="13">
+      <c r="Y60" s="12">
         <v>0.55400000000000005</v>
       </c>
     </row>
     <row r="61" spans="6:25" x14ac:dyDescent="0.2">
       <c r="P61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S61" t="s">
-        <v>57</v>
-      </c>
-      <c r="T61" s="13">
+        <v>56</v>
+      </c>
+      <c r="T61" s="12">
         <v>0.49099999999999999</v>
       </c>
-      <c r="U61" s="14">
+      <c r="U61" s="13">
         <v>0.66100000000000003</v>
       </c>
-      <c r="V61" s="13">
+      <c r="V61" s="12">
         <v>0.56399999999999995</v>
       </c>
-      <c r="W61" s="13">
+      <c r="W61" s="12">
         <v>0.49099999999999999</v>
       </c>
-      <c r="X61" s="13">
+      <c r="X61" s="12">
         <v>0.52700000000000002</v>
       </c>
-      <c r="Y61" s="13">
+      <c r="Y61" s="12">
         <v>0.52700000000000002</v>
       </c>
     </row>
     <row r="63" spans="6:25" x14ac:dyDescent="0.2">
       <c r="P63" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>33</v>
+      </c>
+      <c r="R63" t="s">
         <v>28</v>
       </c>
-      <c r="Q63" t="s">
-        <v>34</v>
-      </c>
-      <c r="R63" t="s">
-        <v>29</v>
-      </c>
       <c r="S63" t="s">
-        <v>18</v>
-      </c>
-      <c r="T63" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="U63" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="T63" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="V63" s="13" t="s">
+      <c r="U63" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="V63" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="W63" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="W63" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="X63" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y63" s="13" t="s">
+      <c r="X63" s="12" t="s">
         <v>46</v>
+      </c>
+      <c r="Y63" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="6:25" x14ac:dyDescent="0.2">
       <c r="P64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S64" t="s">
-        <v>56</v>
-      </c>
-      <c r="T64" s="13">
+        <v>55</v>
+      </c>
+      <c r="T64" s="12">
         <v>0.51900000000000002</v>
       </c>
-      <c r="U64" s="14">
+      <c r="U64" s="13">
         <v>0.63700000000000001</v>
       </c>
-      <c r="V64" s="13">
+      <c r="V64" s="12">
         <v>0.52300000000000002</v>
       </c>
-      <c r="W64" s="13">
+      <c r="W64" s="12">
         <v>0.48199999999999998</v>
       </c>
-      <c r="X64" s="13">
+      <c r="X64" s="12">
         <v>0.53600000000000003</v>
       </c>
-      <c r="Y64" s="13">
+      <c r="Y64" s="12">
         <v>0.52600000000000002</v>
       </c>
     </row>
     <row r="65" spans="16:25" x14ac:dyDescent="0.2">
       <c r="P65" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q65" t="s">
         <v>33</v>
       </c>
-      <c r="Q65" t="s">
-        <v>34</v>
-      </c>
       <c r="R65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S65" t="s">
-        <v>57</v>
-      </c>
-      <c r="T65" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="U65" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T65" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="V65" s="13" t="s">
+      <c r="U65" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="W65" s="13" t="s">
+      <c r="V65" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="X65" s="13" t="s">
+      <c r="W65" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="Y65" s="13" t="s">
-        <v>51</v>
+      <c r="X65" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y65" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="M53:M55"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="M56:M58"/>
     <mergeCell ref="T49:Y49"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="F50:F52"/>
     <mergeCell ref="M50:M52"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="M53:M55"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="M56:M58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15947,7 +15910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E4288F-B569-2540-92E6-3B67849B17D3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/quals-ppt/Quals-tabs-n-charts.xlsx
+++ b/quals-ppt/Quals-tabs-n-charts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tg/work/phd/phd-git/quals-ppt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A8472E-0A0E-054C-B937-C5C31091F249}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32719238-0472-7F45-8E05-C6EA6DB21C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D80716E3-8E0F-AF4C-AC47-351DBC577466}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="41080" windowHeight="26940" xr2:uid="{D80716E3-8E0F-AF4C-AC47-351DBC577466}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -215,6 +215,15 @@
   </si>
   <si>
     <t>BLEURTmean</t>
+  </si>
+  <si>
+    <t>LT-EN (N=11)</t>
+  </si>
+  <si>
+    <t>PS-EN (N=26)</t>
+  </si>
+  <si>
+    <t>BG-EN (N=11)</t>
   </si>
 </sst>
 </file>
@@ -5600,13 +5609,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>LT-EN</c:v>
+                  <c:v>LT-EN (N=11)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>PS-EN</c:v>
+                  <c:v>PS-EN (N=26)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BG-EN</c:v>
+                  <c:v>BG-EN (N=11)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5764,13 +5773,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>LT-EN</c:v>
+                  <c:v>LT-EN (N=11)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>PS-EN</c:v>
+                  <c:v>PS-EN (N=26)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BG-EN</c:v>
+                  <c:v>BG-EN (N=11)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5886,13 +5895,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>LT-EN</c:v>
+                  <c:v>LT-EN (N=11)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>PS-EN</c:v>
+                  <c:v>PS-EN (N=26)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BG-EN</c:v>
+                  <c:v>BG-EN (N=11)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6050,13 +6059,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>LT-EN</c:v>
+                  <c:v>LT-EN (N=11)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>PS-EN</c:v>
+                  <c:v>PS-EN (N=26)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BG-EN</c:v>
+                  <c:v>BG-EN (N=11)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6214,13 +6223,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>LT-EN</c:v>
+                  <c:v>LT-EN (N=11)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>PS-EN</c:v>
+                  <c:v>PS-EN (N=26)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BG-EN</c:v>
+                  <c:v>BG-EN (N=11)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6378,13 +6387,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>LT-EN</c:v>
+                  <c:v>LT-EN (N=11)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>PS-EN</c:v>
+                  <c:v>PS-EN (N=26)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BG-EN</c:v>
+                  <c:v>BG-EN (N=11)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14472,8 +14481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D1EDFF-D777-2A4A-9A55-DEC6CA8664E3}">
   <dimension ref="B3:Y65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14811,7 +14820,7 @@
         <v>28</v>
       </c>
       <c r="S9" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="T9" s="14">
         <v>0.34499999999999997</v>
@@ -14868,7 +14877,7 @@
         <v>28</v>
       </c>
       <c r="S10" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="T10" s="14">
         <v>0.58899999999999997</v>
@@ -14916,7 +14925,7 @@
         <v>28</v>
       </c>
       <c r="S11" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="T11" s="14">
         <v>0.25700000000000001</v>
@@ -15891,15 +15900,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="M50:M52"/>
     <mergeCell ref="F53:F55"/>
     <mergeCell ref="M53:M55"/>
     <mergeCell ref="F56:F58"/>
     <mergeCell ref="M56:M58"/>
     <mergeCell ref="T49:Y49"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="M50:M52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
